--- a/waste_recycling_2013_2023.xlsx
+++ b/waste_recycling_2013_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pooyi\Notebooks\AI_Bootcamp\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93341EA-DC43-4965-9992-B1F72ABA24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6319EDA6-13E7-4A7E-A906-51E86DA795F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FA349B73-7F46-472B-9A5D-85D2E016C329}"/>
   </bookViews>
@@ -30,19 +30,19 @@
     <t>Year     </t>
   </si>
   <si>
-    <t>Waste Generated</t>
+    <t>Waste_Generated</t>
   </si>
   <si>
-    <t>Waste Recycled</t>
+    <t>Waste_Recycled</t>
   </si>
   <si>
-    <t>Waste Disposed</t>
+    <t>Waste_Disposed</t>
   </si>
   <si>
-    <t>Overall Recycling Rate </t>
+    <t>Overall_Recycling_Rate </t>
   </si>
   <si>
-    <t>Overall Recycling Rate Without Construction &amp; Demolition Waste</t>
+    <t>Overall_Recycling_Rate_Without_Construction_&amp;_Demolition_Waste</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -472,7 +472,7 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="78" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="65.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
